--- a/admin/Time Sheets/Week_12(Nov 6)/Senior Project Timesheets Tiger McDaniel 11-06-22.xlsx
+++ b/admin/Time Sheets/Week_12(Nov 6)/Senior Project Timesheets Tiger McDaniel 11-06-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ebb128e2d3bce3f/Documents/Course Folders/CSCI 4308 Capstone/Time Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{5E1CFBF5-1C99-4031-9B3D-540998C4FAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAA081AD-C730-47E6-ABF3-412A6B6090EA}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{5E1CFBF5-1C99-4031-9B3D-540998C4FAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06EE5A79-30D5-44F1-8E41-8A1D97A66E0C}"/>
   <bookViews>
-    <workbookView xWindow="218" yWindow="532" windowWidth="20812" windowHeight="12773" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="555" yWindow="870" windowWidth="20813" windowHeight="12772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Task Time Sheet</t>
+  </si>
+  <si>
+    <t>Requirements Doc</t>
   </si>
 </sst>
 </file>
@@ -236,6 +239,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -504,7 +511,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -663,13 +670,15 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="3"/>
       <c r="I9" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -691,17 +700,21 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="3"/>
       <c r="I11" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
@@ -778,7 +791,7 @@
       </c>
       <c r="E16" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="4"/>
@@ -794,7 +807,7 @@
       </c>
       <c r="I16" s="4">
         <f>SUM(I6:I15)</f>
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
